--- a/data/trans_dic/P36B13_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Estudios-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 11,53</t>
+          <t>7,3; 11,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,79</t>
+          <t>5,23; 10,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,05</t>
+          <t>3,44; 6,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,13</t>
+          <t>1,83; 4,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 7,81</t>
+          <t>5,49; 7,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,68</t>
+          <t>3,51; 6,05</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,91; 15,89</t>
+          <t>12,89; 16,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 20,86</t>
+          <t>7,99; 18,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 10,97</t>
+          <t>8,43; 11,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,26</t>
+          <t>3,29; 5,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,03; 13,1</t>
+          <t>11,14; 13,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,1</t>
+          <t>5,99; 12,3</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 11,07</t>
+          <t>6,25; 11,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,8</t>
+          <t>2,89; 6,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 9,55</t>
+          <t>5,24; 9,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,61</t>
+          <t>2,24; 5,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 9,38</t>
+          <t>6,23; 9,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,4</t>
+          <t>2,93; 5,39</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,28; 13,49</t>
+          <t>11,18; 13,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 13,86</t>
+          <t>7,13; 14,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 8,78</t>
+          <t>6,99; 8,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 4,64</t>
+          <t>3,12; 4,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 10,74</t>
+          <t>9,32; 10,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 8,68</t>
+          <t>5,32; 8,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B13_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Estudios-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 11,61</t>
+          <t>7,31; 11,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,21</t>
+          <t>3,29; 6,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,49; 7,97</t>
+          <t>5,41; 7,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,89; 16,11</t>
+          <t>12,94; 16,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 11,01</t>
+          <t>8,3; 10,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,14; 13,15</t>
+          <t>11,07; 13,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 11,05</t>
+          <t>6,06; 11,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,58</t>
+          <t>4,99; 9,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 9,48</t>
+          <t>6,47; 9,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,18; 13,48</t>
+          <t>11,2; 13,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 8,82</t>
+          <t>7,04; 8,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 10,7</t>
+          <t>9,34; 10,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_dic/P36B13_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,31; 11,41</t>
+          <t>7,21; 11,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,15</t>
+          <t>5,09; 9,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,1</t>
+          <t>3,28; 6,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,17</t>
+          <t>1,8; 4,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,41; 7,79</t>
+          <t>5,48; 7,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,05</t>
+          <t>3,48; 5,68</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,94; 16,02</t>
+          <t>12,91; 15,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,99; 18,39</t>
+          <t>8,16; 20,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,3; 10,88</t>
+          <t>8,47; 10,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,34</t>
+          <t>3,36; 5,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 13,09</t>
+          <t>11,03; 13,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,99; 12,3</t>
+          <t>5,96; 11,1</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 11,06</t>
+          <t>6,09; 11,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,92</t>
+          <t>2,9; 6,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 9,38</t>
+          <t>5,26; 9,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,61</t>
+          <t>2,12; 5,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 9,85</t>
+          <t>6,26; 9,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,39</t>
+          <t>2,77; 5,4</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,2; 13,54</t>
+          <t>11,28; 13,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 14,07</t>
+          <t>7,08; 13,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,04; 8,75</t>
+          <t>6,92; 8,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 4,48</t>
+          <t>3,17; 4,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,34; 10,77</t>
+          <t>9,26; 10,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 8,66</t>
+          <t>5,31; 8,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B13_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Estudios-trans_dic.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,35%</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,79</t>
+          <t>4,88; 9,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,13</t>
+          <t>1,67; 3,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,68</t>
+          <t>3,38; 5,46</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>10,97%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 20,86</t>
+          <t>7,87; 47,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,26</t>
+          <t>2,69; 4,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,1</t>
+          <t>5,47; 24,48</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,8</t>
+          <t>2,78; 6,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,61</t>
+          <t>2,17; 5,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,4</t>
+          <t>2,7; 5,35</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>8,49%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 13,86</t>
+          <t>6,86; 33,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 4,64</t>
+          <t>2,69; 4,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 8,68</t>
+          <t>5,0; 18,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B13_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 11,53</t>
+          <t>7,2; 11,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,39</t>
+          <t>5,02; 9,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,05</t>
+          <t>3,28; 5,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,73</t>
+          <t>1,72; 3,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 7,81</t>
+          <t>5,42; 7,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,46</t>
+          <t>3,43; 5,55</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,91; 15,89</t>
+          <t>12,9; 16,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,87; 47,06</t>
+          <t>7,65; 42,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 10,97</t>
+          <t>8,49; 10,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,68</t>
+          <t>2,71; 4,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,03; 13,1</t>
+          <t>11,01; 13,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 24,48</t>
+          <t>5,55; 27,87</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 11,07</t>
+          <t>6,11; 10,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,57</t>
+          <t>2,77; 6,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 9,55</t>
+          <t>5,3; 9,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,59</t>
+          <t>2,17; 5,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 9,38</t>
+          <t>6,33; 9,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,35</t>
+          <t>2,82; 5,35</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,28; 13,49</t>
+          <t>11,19; 13,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 33,13</t>
+          <t>6,86; 32,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 8,78</t>
+          <t>6,96; 8,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,21</t>
+          <t>2,79; 4,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 10,74</t>
+          <t>9,32; 10,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 18,03</t>
+          <t>4,97; 20,03</t>
         </is>
       </c>
     </row>
@@ -928,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume comida rápida al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>68486</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>35931</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45291</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19269</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>113777</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>55200</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>53666; 85097</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25792; 49526</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>32237; 58780</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12969; 28190</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>93759; 135551</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>43570; 70435</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>298087</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>412612</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>190806</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>82882</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>488893</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>495495</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>266592; 331382</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>175026; 973724</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>167930; 217539</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>60545; 105653</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>445565; 532426</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>250903; 1259298</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>45701</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>28015</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>39227</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23582</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>84928</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>51597</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33255; 59303</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17883; 44218</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29014; 52681</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14297; 36239</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>69085; 105135</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>36827; 69746</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>412274</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>476559</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>275324</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>125733</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>687598</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>602292</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>375615; 452434</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>236611; 1106321</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>244379; 307176</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>101572; 151207</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>640178; 736091</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>352527; 1420604</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>